--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H2">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I2">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J2">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N2">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O2">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P2">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q2">
-        <v>61.66849128045244</v>
+        <v>19.693903219384</v>
       </c>
       <c r="R2">
-        <v>61.66849128045244</v>
+        <v>177.245128974456</v>
       </c>
       <c r="S2">
-        <v>0.3112133469968049</v>
+        <v>0.06184913514054791</v>
       </c>
       <c r="T2">
-        <v>0.3112133469968049</v>
+        <v>0.07922286534851339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H3">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I3">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J3">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N3">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O3">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P3">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q3">
-        <v>2.86546313243526</v>
+        <v>0.886259509868</v>
       </c>
       <c r="R3">
-        <v>2.86546313243526</v>
+        <v>7.976335588812</v>
       </c>
       <c r="S3">
-        <v>0.01446071330147488</v>
+        <v>0.002783317435086705</v>
       </c>
       <c r="T3">
-        <v>0.01446071330147488</v>
+        <v>0.00356516516974679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H4">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I4">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J4">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N4">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O4">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P4">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q4">
-        <v>1.065592566700399</v>
+        <v>0.593998192264</v>
       </c>
       <c r="R4">
-        <v>1.065592566700399</v>
+        <v>5.345983730376</v>
       </c>
       <c r="S4">
-        <v>0.005377570009124995</v>
+        <v>0.001865464354999832</v>
       </c>
       <c r="T4">
-        <v>0.005377570009124995</v>
+        <v>0.002389482586502888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H5">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I5">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J5">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N5">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O5">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P5">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q5">
-        <v>3.489881569436275</v>
+        <v>1.556614846696</v>
       </c>
       <c r="R5">
-        <v>3.489881569436275</v>
+        <v>14.009533620264</v>
       </c>
       <c r="S5">
-        <v>0.01761187441585741</v>
+        <v>0.004888583077849386</v>
       </c>
       <c r="T5">
-        <v>0.01761187441585741</v>
+        <v>0.006261810420491712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H6">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I6">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J6">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.7335272665878</v>
+        <v>19.1777795</v>
       </c>
       <c r="N6">
-        <v>17.7335272665878</v>
+        <v>38.355559</v>
       </c>
       <c r="O6">
-        <v>0.5086986398176706</v>
+        <v>0.5001601867174891</v>
       </c>
       <c r="P6">
-        <v>0.5086986398176706</v>
+        <v>0.4001537891027781</v>
       </c>
       <c r="Q6">
-        <v>71.53592718657596</v>
+        <v>22.745345109267</v>
       </c>
       <c r="R6">
-        <v>71.53592718657596</v>
+        <v>136.472070655602</v>
       </c>
       <c r="S6">
-        <v>0.3610098912426434</v>
+        <v>0.07143225534371532</v>
       </c>
       <c r="T6">
-        <v>0.3610098912426434</v>
+        <v>0.06099862117474444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H7">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I7">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J7">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N7">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O7">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P7">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q7">
-        <v>7.75894527988961</v>
+        <v>72.94635638626579</v>
       </c>
       <c r="R7">
-        <v>7.75894527988961</v>
+        <v>656.5172074763921</v>
       </c>
       <c r="S7">
-        <v>0.03915593327454907</v>
+        <v>0.2290896326587027</v>
       </c>
       <c r="T7">
-        <v>0.03915593327454907</v>
+        <v>0.2934420518511395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H8">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I8">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J8">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N8">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O8">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P8">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q8">
-        <v>0.360524008038342</v>
+        <v>3.282711473564889</v>
       </c>
       <c r="R8">
-        <v>0.360524008038342</v>
+        <v>29.544403262084</v>
       </c>
       <c r="S8">
-        <v>0.001819403732516484</v>
+        <v>0.01030942740472615</v>
       </c>
       <c r="T8">
-        <v>0.001819403732516484</v>
+        <v>0.01320539692671373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H9">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I9">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J9">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N9">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O9">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P9">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q9">
-        <v>0.1340696722753496</v>
+        <v>2.200173492425778</v>
       </c>
       <c r="R9">
-        <v>0.1340696722753496</v>
+        <v>19.801561431832</v>
       </c>
       <c r="S9">
-        <v>0.0006765897879652195</v>
+        <v>0.006909693124304364</v>
       </c>
       <c r="T9">
-        <v>0.0006765897879652195</v>
+        <v>0.008850660348643057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H10">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I10">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J10">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N10">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O10">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P10">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q10">
-        <v>0.4390864697404135</v>
+        <v>5.765712367849778</v>
       </c>
       <c r="R10">
-        <v>0.4390864697404135</v>
+        <v>51.891411310648</v>
       </c>
       <c r="S10">
-        <v>0.002215873406850157</v>
+        <v>0.01810734618974245</v>
       </c>
       <c r="T10">
-        <v>0.002215873406850157</v>
+        <v>0.02319378994951254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H11">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I11">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J11">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.7335272665878</v>
+        <v>19.1777795</v>
       </c>
       <c r="N11">
-        <v>17.7335272665878</v>
+        <v>38.355559</v>
       </c>
       <c r="O11">
-        <v>0.5086986398176706</v>
+        <v>0.5001601867174891</v>
       </c>
       <c r="P11">
-        <v>0.5086986398176706</v>
+        <v>0.4001537891027781</v>
       </c>
       <c r="Q11">
-        <v>9.000436577288975</v>
+        <v>84.24891866210234</v>
       </c>
       <c r="R11">
-        <v>9.000436577288975</v>
+        <v>505.493511972614</v>
       </c>
       <c r="S11">
-        <v>0.04542118565722788</v>
+        <v>0.2645855774617938</v>
       </c>
       <c r="T11">
-        <v>0.04542118565722788</v>
+        <v>0.2259393229323945</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.142741208661</v>
+        <v>0.785643</v>
       </c>
       <c r="H12">
-        <v>1.142741208661</v>
+        <v>2.356929</v>
       </c>
       <c r="I12">
-        <v>0.2010376181749855</v>
+        <v>0.09460547695511548</v>
       </c>
       <c r="J12">
-        <v>0.2010376181749855</v>
+        <v>0.1009773851399054</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N12">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O12">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P12">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q12">
-        <v>17.46956652727987</v>
+        <v>13.045563256612</v>
       </c>
       <c r="R12">
-        <v>17.46956652727987</v>
+        <v>117.410069309508</v>
       </c>
       <c r="S12">
-        <v>0.08816110393901357</v>
+        <v>0.04096987762428941</v>
       </c>
       <c r="T12">
-        <v>0.08816110393901357</v>
+        <v>0.05247852037055015</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.142741208661</v>
+        <v>0.785643</v>
       </c>
       <c r="H13">
-        <v>1.142741208661</v>
+        <v>2.356929</v>
       </c>
       <c r="I13">
-        <v>0.2010376181749855</v>
+        <v>0.09460547695511548</v>
       </c>
       <c r="J13">
-        <v>0.2010376181749855</v>
+        <v>0.1009773851399054</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N13">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O13">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P13">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q13">
-        <v>0.8117338009112762</v>
+        <v>0.5870727792739999</v>
       </c>
       <c r="R13">
-        <v>0.8117338009112762</v>
+        <v>5.283655013465999</v>
       </c>
       <c r="S13">
-        <v>0.004096458139427713</v>
+        <v>0.001843714943562641</v>
       </c>
       <c r="T13">
-        <v>0.004096458139427713</v>
+        <v>0.002361623657032289</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.142741208661</v>
+        <v>0.785643</v>
       </c>
       <c r="H14">
-        <v>1.142741208661</v>
+        <v>2.356929</v>
       </c>
       <c r="I14">
-        <v>0.2010376181749855</v>
+        <v>0.09460547695511548</v>
       </c>
       <c r="J14">
-        <v>0.2010376181749855</v>
+        <v>0.1009773851399054</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N14">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O14">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P14">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q14">
-        <v>0.301863072185264</v>
+        <v>0.393474107452</v>
       </c>
       <c r="R14">
-        <v>0.301863072185264</v>
+        <v>3.541266967068</v>
       </c>
       <c r="S14">
-        <v>0.001523368175204446</v>
+        <v>0.001235714067191725</v>
       </c>
       <c r="T14">
-        <v>0.001523368175204446</v>
+        <v>0.00158283230528495</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.142741208661</v>
+        <v>0.785643</v>
       </c>
       <c r="H15">
-        <v>1.142741208661</v>
+        <v>2.356929</v>
       </c>
       <c r="I15">
-        <v>0.2010376181749855</v>
+        <v>0.09460547695511548</v>
       </c>
       <c r="J15">
-        <v>0.2010376181749855</v>
+        <v>0.1009773851399054</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N15">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O15">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P15">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q15">
-        <v>0.9886202335052101</v>
+        <v>1.031127106828</v>
       </c>
       <c r="R15">
-        <v>0.9886202335052101</v>
+        <v>9.280143961452</v>
       </c>
       <c r="S15">
-        <v>0.004989125003540414</v>
+        <v>0.003238277301704031</v>
       </c>
       <c r="T15">
-        <v>0.004989125003540414</v>
+        <v>0.004147925529614334</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.785643</v>
+      </c>
+      <c r="H16">
+        <v>2.356929</v>
+      </c>
+      <c r="I16">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J16">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.1777795</v>
+      </c>
+      <c r="N16">
+        <v>38.355559</v>
+      </c>
+      <c r="O16">
+        <v>0.5001601867174891</v>
+      </c>
+      <c r="P16">
+        <v>0.4001537891027781</v>
+      </c>
+      <c r="Q16">
+        <v>15.0668882197185</v>
+      </c>
+      <c r="R16">
+        <v>90.401329318311</v>
+      </c>
+      <c r="S16">
+        <v>0.04731789301836767</v>
+      </c>
+      <c r="T16">
+        <v>0.04040648327742372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.102837</v>
+      </c>
+      <c r="I17">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J17">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.60495066666667</v>
+      </c>
+      <c r="N17">
+        <v>49.814852</v>
+      </c>
+      <c r="O17">
+        <v>0.4330603147186406</v>
+      </c>
+      <c r="P17">
+        <v>0.5197056776409935</v>
+      </c>
+      <c r="Q17">
+        <v>6.104184659458223</v>
+      </c>
+      <c r="R17">
+        <v>54.93766193512401</v>
+      </c>
+      <c r="S17">
+        <v>0.01917032584754928</v>
+      </c>
+      <c r="T17">
+        <v>0.02455536588921279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.102837</v>
+      </c>
+      <c r="I18">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J18">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7472513333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.241754</v>
+      </c>
+      <c r="O18">
+        <v>0.01948845883877707</v>
+      </c>
+      <c r="P18">
+        <v>0.02338764916283215</v>
+      </c>
+      <c r="Q18">
+        <v>0.2746988062331111</v>
+      </c>
+      <c r="R18">
+        <v>2.472289256098</v>
+      </c>
+      <c r="S18">
+        <v>0.0008626976278088106</v>
+      </c>
+      <c r="T18">
+        <v>0.001105033689623454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.102837</v>
+      </c>
+      <c r="I19">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J19">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5008306666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.502492</v>
+      </c>
+      <c r="O19">
+        <v>0.01306176034372721</v>
+      </c>
+      <c r="P19">
+        <v>0.01567511679067463</v>
+      </c>
+      <c r="Q19">
+        <v>0.1841115299782222</v>
+      </c>
+      <c r="R19">
+        <v>1.657003769804</v>
+      </c>
+      <c r="S19">
+        <v>0.0005782062992646452</v>
+      </c>
+      <c r="T19">
+        <v>0.0007406273294883039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.102837</v>
+      </c>
+      <c r="I20">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J20">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.312462666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.937388</v>
+      </c>
+      <c r="O20">
+        <v>0.034229279381366</v>
+      </c>
+      <c r="P20">
+        <v>0.04107776730272161</v>
+      </c>
+      <c r="Q20">
+        <v>0.4824774633062222</v>
+      </c>
+      <c r="R20">
+        <v>4.342297169756</v>
+      </c>
+      <c r="S20">
+        <v>0.001515231058966719</v>
+      </c>
+      <c r="T20">
+        <v>0.001940867012669148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.102837</v>
+      </c>
+      <c r="I21">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J21">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.1777795</v>
+      </c>
+      <c r="N21">
+        <v>38.355559</v>
+      </c>
+      <c r="O21">
+        <v>0.5001601867174891</v>
+      </c>
+      <c r="P21">
+        <v>0.4001537891027781</v>
+      </c>
+      <c r="Q21">
+        <v>7.049988270147168</v>
+      </c>
+      <c r="R21">
+        <v>42.299929620883</v>
+      </c>
+      <c r="S21">
+        <v>0.02214064283764914</v>
+      </c>
+      <c r="T21">
+        <v>0.01890670648043456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.5720835</v>
+      </c>
+      <c r="H22">
+        <v>3.144167</v>
+      </c>
+      <c r="I22">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J22">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.60495066666667</v>
+      </c>
+      <c r="N22">
+        <v>49.814852</v>
+      </c>
+      <c r="O22">
+        <v>0.4330603147186406</v>
+      </c>
+      <c r="P22">
+        <v>0.5197056776409935</v>
+      </c>
+      <c r="Q22">
+        <v>26.10436896138067</v>
+      </c>
+      <c r="R22">
+        <v>156.626213768284</v>
+      </c>
+      <c r="S22">
+        <v>0.08198134344755137</v>
+      </c>
+      <c r="T22">
+        <v>0.07000687418157761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.5720835</v>
+      </c>
+      <c r="H23">
+        <v>3.144167</v>
+      </c>
+      <c r="I23">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J23">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7472513333333333</v>
+      </c>
+      <c r="N23">
+        <v>2.241754</v>
+      </c>
+      <c r="O23">
+        <v>0.01948845883877707</v>
+      </c>
+      <c r="P23">
+        <v>0.02338764916283215</v>
+      </c>
+      <c r="Q23">
+        <v>1.174741491486333</v>
+      </c>
+      <c r="R23">
+        <v>7.048448948918001</v>
+      </c>
+      <c r="S23">
+        <v>0.00368930142759276</v>
+      </c>
+      <c r="T23">
+        <v>0.003150429719715885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.142741208661</v>
-      </c>
-      <c r="H16">
-        <v>1.142741208661</v>
-      </c>
-      <c r="I16">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="J16">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>17.7335272665878</v>
-      </c>
-      <c r="N16">
-        <v>17.7335272665878</v>
-      </c>
-      <c r="O16">
-        <v>0.5086986398176706</v>
-      </c>
-      <c r="P16">
-        <v>0.5086986398176706</v>
-      </c>
-      <c r="Q16">
-        <v>20.26483238244334</v>
-      </c>
-      <c r="R16">
-        <v>20.26483238244334</v>
-      </c>
-      <c r="S16">
-        <v>0.1022675629177993</v>
-      </c>
-      <c r="T16">
-        <v>0.1022675629177993</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.5720835</v>
+      </c>
+      <c r="H24">
+        <v>3.144167</v>
+      </c>
+      <c r="I24">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J24">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5008306666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.502492</v>
+      </c>
+      <c r="O24">
+        <v>0.01306176034372721</v>
+      </c>
+      <c r="P24">
+        <v>0.01567511679067463</v>
+      </c>
+      <c r="Q24">
+        <v>0.7873476273606668</v>
+      </c>
+      <c r="R24">
+        <v>4.724085764164</v>
+      </c>
+      <c r="S24">
+        <v>0.002472682497966637</v>
+      </c>
+      <c r="T24">
+        <v>0.002111514220755426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.5720835</v>
+      </c>
+      <c r="H25">
+        <v>3.144167</v>
+      </c>
+      <c r="I25">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J25">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.312462666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.937388</v>
+      </c>
+      <c r="O25">
+        <v>0.034229279381366</v>
+      </c>
+      <c r="P25">
+        <v>0.04107776730272161</v>
+      </c>
+      <c r="Q25">
+        <v>2.063300902632667</v>
+      </c>
+      <c r="R25">
+        <v>12.379805415796</v>
+      </c>
+      <c r="S25">
+        <v>0.006479841753103419</v>
+      </c>
+      <c r="T25">
+        <v>0.005533374390433871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.5720835</v>
+      </c>
+      <c r="H26">
+        <v>3.144167</v>
+      </c>
+      <c r="I26">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J26">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.1777795</v>
+      </c>
+      <c r="N26">
+        <v>38.355559</v>
+      </c>
+      <c r="O26">
+        <v>0.5001601867174891</v>
+      </c>
+      <c r="P26">
+        <v>0.4001537891027781</v>
+      </c>
+      <c r="Q26">
+        <v>30.14907071858825</v>
+      </c>
+      <c r="R26">
+        <v>120.596282874353</v>
+      </c>
+      <c r="S26">
+        <v>0.0946838180559631</v>
+      </c>
+      <c r="T26">
+        <v>0.05390265523778082</v>
       </c>
     </row>
   </sheetData>
